--- a/testData/costco.xlsx
+++ b/testData/costco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_Playwright_GenAI/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{054CADDF-AA3E-4041-98F7-EE3BCD8AE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF0413E-A67A-42E6-8B48-761D533D9A16}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="13_ncr:1_{054CADDF-AA3E-4041-98F7-EE3BCD8AE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED61FC4-2608-41C5-8B3E-3181B938BAC9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>action</t>
   </si>
@@ -81,22 +81,10 @@
     <t>input#password</t>
   </si>
   <si>
-    <t>Membership</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Search Costco</t>
-  </si>
-  <si>
-    <t>sofa</t>
-  </si>
-  <si>
-    <t>oauthclick</t>
-  </si>
-  <si>
     <t>button[form="localAccountForm"]</t>
+  </si>
+  <si>
+    <t>clickloc</t>
   </si>
 </sst>
 </file>
@@ -432,9 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -569,38 +555,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="E10" s="1">
         <v>7000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
